--- a/hw/HW4_datasets.xlsx
+++ b/hw/HW4_datasets.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18195" windowHeight="9525"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18195" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HW4_q1_data" sheetId="1" r:id="rId1"/>
     <sheet name="HW4_q2_data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
   <si>
     <t>A</t>
   </si>
@@ -58,13 +58,67 @@
   </si>
   <si>
     <t>ash</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>MS Breaker</t>
+  </si>
+  <si>
+    <t>Goog Havoc</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>|t|</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -129,6 +183,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,6 +196,611 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MS Breaker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:val val="0.18440000000000006"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$9:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goog Havoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:val val="0.18440000000000006"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$9:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$9:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="83402752"/>
+        <c:axId val="83404288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83402752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83404288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83404288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83402752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hardwood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:val val="1.05"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oak</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fir</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>spruce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$12:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>softwood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:val val="1.05"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$I$12:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oak</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fir</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pine</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>spruce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$12:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="101128832"/>
+        <c:axId val="94540160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="101128832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94540160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94540160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101128832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266291" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="3505200"/>
+          <a:ext cx="266291" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266291" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="3495675"/>
+          <a:ext cx="266291" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266291" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="3419475"/>
+          <a:ext cx="266291" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266291" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="3419475"/>
+          <a:ext cx="266291" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>456640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>551890</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,7 +878,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,7 +912,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,16 +1087,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -460,7 +1118,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,7 +1129,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -482,7 +1140,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -493,7 +1151,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -504,7 +1162,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -515,7 +1173,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -526,7 +1184,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -537,7 +1195,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -548,7 +1206,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -559,7 +1217,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -570,7 +1228,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -581,7 +1239,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -592,7 +1250,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -603,7 +1261,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -614,7 +1272,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -625,7 +1283,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -636,7 +1294,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -647,7 +1305,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -658,7 +1316,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -676,16 +1334,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -696,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -707,7 +1365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -718,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -729,7 +1387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -740,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -751,7 +1409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -762,7 +1420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -773,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -784,7 +1442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -795,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -806,7 +1464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -817,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -828,7 +1486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -839,7 +1497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -850,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -861,7 +1519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -872,7 +1530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -883,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -894,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -905,7 +1563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -916,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -927,7 +1585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -938,7 +1596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -949,7 +1607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -966,13 +1624,448 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12.06</v>
+      </c>
+      <c r="D2">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="E2">
+        <v>11.6691</v>
+      </c>
+      <c r="F2">
+        <v>12.450900000000001</v>
+      </c>
+      <c r="G2">
+        <v>12.06</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>13.34</v>
+      </c>
+      <c r="D3">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="E3">
+        <v>12.9491</v>
+      </c>
+      <c r="F3">
+        <v>13.7309</v>
+      </c>
+      <c r="G3">
+        <v>13.34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>20.75</v>
+      </c>
+      <c r="L3">
+        <v>1.0508</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>19.75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3">
+        <v>0.05</v>
+      </c>
+      <c r="Q3">
+        <v>18.542400000000001</v>
+      </c>
+      <c r="R3">
+        <v>22.957599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>14.12</v>
+      </c>
+      <c r="D4">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="E4">
+        <v>13.729100000000001</v>
+      </c>
+      <c r="F4">
+        <v>14.510899999999999</v>
+      </c>
+      <c r="G4">
+        <v>14.12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>18.75</v>
+      </c>
+      <c r="L4">
+        <v>1.0508</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>17.84</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4">
+        <v>0.05</v>
+      </c>
+      <c r="Q4">
+        <v>16.542400000000001</v>
+      </c>
+      <c r="R4">
+        <v>20.957599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>13.28</v>
+      </c>
+      <c r="D5">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="E5">
+        <v>12.889099999999999</v>
+      </c>
+      <c r="F5">
+        <v>13.6709</v>
+      </c>
+      <c r="G5">
+        <v>13.28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>16.5</v>
+      </c>
+      <c r="L5">
+        <v>1.0508</v>
+      </c>
+      <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>15.7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5">
+        <v>0.05</v>
+      </c>
+      <c r="Q5">
+        <v>14.292400000000001</v>
+      </c>
+      <c r="R5">
+        <v>18.707599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>12.5</v>
+      </c>
+      <c r="L6">
+        <v>1.0508</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>11.9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6">
+        <v>0.05</v>
+      </c>
+      <c r="Q6">
+        <v>10.292400000000001</v>
+      </c>
+      <c r="R6">
+        <v>14.707599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="6">
+        <v>12</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.0508</v>
+      </c>
+      <c r="M7" s="6">
+        <v>18</v>
+      </c>
+      <c r="N7" s="6">
+        <v>11.42</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q7">
+        <v>9.7924000000000007</v>
+      </c>
+      <c r="R7">
+        <v>14.207599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>1.0508</v>
+      </c>
+      <c r="M8">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>16.18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8">
+        <v>0.05</v>
+      </c>
+      <c r="Q8">
+        <v>14.792400000000001</v>
+      </c>
+      <c r="R8">
+        <v>19.207599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>12.06</v>
+      </c>
+      <c r="C9">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>14.12</v>
+      </c>
+      <c r="C10">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="I16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>